--- a/Data_Sources/LNdist_DoubleCheck.xlsx
+++ b/Data_Sources/LNdist_DoubleCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vronn\Documents\Opioid Policing Model\DaneCountyOpioidSimulation\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B6F19-A159-488D-9FB3-033B85E20F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B5109-0424-486A-8790-81625D65CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="6" activeTab="8" xr2:uid="{4FC92B0C-2FA7-465F-A4EE-8295F6CDA06C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22896" windowHeight="25320" firstSheet="3" activeTab="10" xr2:uid="{4FC92B0C-2FA7-465F-A4EE-8295F6CDA06C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="391">
   <si>
     <t>******Dane County Deaths Table. Source: CDC Wonder***********</t>
   </si>
@@ -1250,12 +1250,6 @@
   </si>
   <si>
     <t>LN sig^2</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1737,17 +1731,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2070,30 +2064,30 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="61.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>130</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>148</v>
       </c>
@@ -2164,7 +2158,7 @@
         <v>10.865784705434635</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>342</v>
       </c>
@@ -2200,7 +2194,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>343</v>
       </c>
@@ -2236,7 +2230,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>134</v>
       </c>
@@ -2274,7 +2268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>135</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>136</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>137</v>
       </c>
@@ -2386,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>138</v>
       </c>
@@ -2421,7 +2415,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>139</v>
       </c>
@@ -2456,7 +2450,7 @@
         <v>0.22270000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>140</v>
       </c>
@@ -2488,7 +2482,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>207</v>
       </c>
@@ -2519,7 +2513,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>141</v>
       </c>
@@ -2559,7 +2553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>142</v>
       </c>
@@ -2599,7 +2593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>143</v>
       </c>
@@ -2639,7 +2633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>144</v>
       </c>
@@ -2679,7 +2673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>145</v>
       </c>
@@ -2719,7 +2713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>146</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>147</v>
       </c>
@@ -2795,7 +2789,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>254</v>
       </c>
@@ -2806,7 +2800,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>264</v>
       </c>
@@ -2817,7 +2811,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>259</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>258</v>
       </c>
@@ -2836,7 +2830,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>263</v>
       </c>
@@ -2847,7 +2841,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>255</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>260</v>
       </c>
@@ -2890,7 +2884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>261</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>20125.275000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>262</v>
       </c>
@@ -2936,7 +2930,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2965,7 +2959,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2992,7 +2986,7 @@
         <v>2012.5275000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3061,12 +3055,12 @@
         <v>2012.5275000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="45" t="s">
         <v>267</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="44">
         <f>E47/(1-E47)</f>
         <v>398.99999999999079</v>
@@ -3096,7 +3090,7 @@
         <v>0.99749999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="44">
         <f>E48/(1-E48)</f>
         <v>598.99999999998613</v>
@@ -3112,7 +3106,7 @@
         <v>0.99833333333333329</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>5</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>100</v>
       </c>
@@ -3158,22 +3152,22 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3190,7 @@
         <v>3.8260642495275858E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -3222,7 +3216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -3253,7 +3247,7 @@
         <v>9.0139011354957964E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -3284,7 +3278,7 @@
         <v>5.9701711523936745E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>2.3853977842377106E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -3346,7 +3340,7 @@
         <v>5.3057284273507919E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -3387,27 +3381,27 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView topLeftCell="T14" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6328125" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" customWidth="1"/>
-    <col min="20" max="20" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>240</v>
       </c>
@@ -3438,7 +3432,7 @@
       </c>
       <c r="U1" s="82"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="56"/>
@@ -3463,7 +3457,7 @@
       </c>
       <c r="U2" s="82"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3521,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3564,7 +3558,7 @@
         <v>8.4537509146086798</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3602,7 @@
         <v>0.48253968253968255</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>2374.125</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3675,7 +3669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3712,7 +3706,7 @@
         <v>7.7723842275324007</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3732,7 +3726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>8.4537509146086798</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3830,8 +3824,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>122</v>
       </c>
@@ -3844,7 +3838,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
         <v>116</v>
       </c>
@@ -3875,7 +3869,7 @@
       </c>
       <c r="U17" s="82"/>
     </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
       <c r="B18" s="82"/>
       <c r="C18" s="56"/>
@@ -3894,7 +3888,7 @@
       <c r="T18" s="82"/>
       <c r="U18" s="82"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3953,7 +3947,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -4105,7 +4099,7 @@
         <v>8.4537509146086798</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -4168,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E23" s="10"/>
       <c r="F23" s="67"/>
       <c r="I23" s="10"/>
@@ -4180,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4202,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -4278,7 +4272,7 @@
         <v>2.1972245773362196</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -4354,13 +4348,13 @@
         <v>6.2565263372724598</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E27" s="10"/>
       <c r="F27" s="67"/>
       <c r="I27" s="10"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>8.0310633688782449</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +4535,7 @@
         <v>2.5013049268876557</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:23" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A32" s="64" t="s">
         <v>306</v>
       </c>
@@ -4556,7 +4550,7 @@
       <c r="Q32" s="82"/>
       <c r="R32" s="82"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="85" t="s">
         <v>346</v>
       </c>
@@ -4585,7 +4579,7 @@
       </c>
       <c r="U33" s="82"/>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="83"/>
       <c r="B34" s="84"/>
       <c r="C34" s="56"/>
@@ -4604,7 +4598,7 @@
       <c r="T34" s="82"/>
       <c r="U34" s="82"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +4618,7 @@
       </c>
       <c r="U35" s="73"/>
     </row>
-    <row r="36" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="68" t="s">
         <v>19</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
@@ -4728,7 +4722,7 @@
         <v>0.48253968253968255</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4755,7 @@
         <v>2374.125</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="67"/>
       <c r="E40" t="s">
@@ -4779,7 +4773,7 @@
       </c>
       <c r="U40" s="67"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
@@ -4799,7 +4793,7 @@
       </c>
       <c r="U41" s="67"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>26</v>
       </c>
@@ -4836,7 +4830,7 @@
         <v>-5.5751596501961806</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>28</v>
       </c>
@@ -4873,7 +4867,7 @@
         <v>1.916732822287088E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>29</v>
       </c>
@@ -4910,7 +4904,7 @@
         <v>22.30255533360701</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>27</v>
       </c>
@@ -4947,7 +4941,7 @@
         <v>4.7225581344867544</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>243</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v>4.3780507332454338E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="67"/>
       <c r="M47" s="10"/>
@@ -4992,7 +4986,7 @@
       <c r="T47" s="10"/>
       <c r="U47" s="67"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>23</v>
       </c>
@@ -5012,7 +5006,7 @@
       </c>
       <c r="U48" s="67"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
@@ -5054,7 +5048,7 @@
         <v>7.8767205894609642</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>21</v>
       </c>
@@ -5096,11 +5090,11 @@
         <v>2.3831693209096043</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="67"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
         <v>347</v>
       </c>
@@ -5108,19 +5102,19 @@
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="83"/>
       <c r="B53" s="84"/>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="67"/>
     </row>
-    <row r="55" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>19</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>17</v>
       </c>
@@ -5145,7 +5139,7 @@
         <v>3.3268912186174343E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>18</v>
       </c>
@@ -5153,7 +5147,7 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="67"/>
       <c r="T59" s="79" t="s">
@@ -5212,7 +5206,7 @@
         <v>2374.125</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>25</v>
       </c>
@@ -5258,7 +5252,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>26</v>
       </c>
@@ -5320,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -5383,7 +5377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>29</v>
       </c>
@@ -5447,7 +5441,7 @@
         <v>2.3042537961110755E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>27</v>
       </c>
@@ -5508,7 +5502,7 @@
         <v>0.69123531689686324</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>243</v>
       </c>
@@ -5572,17 +5566,17 @@
         <v>0.48253968253968255</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="67"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="67"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -5593,7 +5587,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="70" t="s">
         <v>21</v>
       </c>
@@ -5606,11 +5600,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="Q32:R32"/>
@@ -5627,24 +5634,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5655,40 +5649,40 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BB309"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY21" sqref="AY21"/>
+    <sheetView topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AS18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.81640625"/>
-    <col min="20" max="20" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.81640625"/>
-    <col min="25" max="25" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625"/>
-    <col min="29" max="29" width="8.81640625" style="60"/>
-    <col min="30" max="30" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.6328125" customWidth="1"/>
-    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.77734375"/>
+    <col min="20" max="20" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.77734375"/>
+    <col min="25" max="25" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.77734375"/>
+    <col min="29" max="29" width="8.77734375" style="60"/>
+    <col min="30" max="30" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6328125" customWidth="1"/>
-    <col min="42" max="42" width="20.08984375" customWidth="1"/>
-    <col min="46" max="46" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" customWidth="1"/>
+    <col min="42" max="42" width="20.109375" customWidth="1"/>
+    <col min="46" max="46" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>38</v>
       </c>
@@ -5707,7 +5701,7 @@
       <c r="K1" s="82"/>
       <c r="L1" s="56"/>
       <c r="M1" s="56"/>
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="89" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="88"/>
@@ -5768,7 +5762,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>62</v>
       </c>
@@ -5787,7 +5781,7 @@
       <c r="K2" s="82"/>
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="90" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="82"/>
@@ -5822,7 +5816,7 @@
       <c r="AW2" s="82"/>
       <c r="AX2" s="82"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5958,7 +5952,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6250,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>0.949367089</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6540,7 +6534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" s="75" t="s">
         <v>324</v>
       </c>
@@ -6569,7 +6563,7 @@
       <c r="Z8" s="75"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -6614,7 +6608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6793,7 +6787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6972,7 +6966,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -7151,7 +7145,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7330,7 +7324,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -7509,7 +7503,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" s="75"/>
       <c r="G15" s="75"/>
       <c r="K15" s="75"/>
@@ -7519,7 +7513,7 @@
       <c r="Z15" s="75"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7564,7 +7558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7738,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7924,7 +7918,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" ht="57.6" x14ac:dyDescent="0.3">
       <c r="O19" s="47"/>
       <c r="T19" s="11" t="s">
         <v>66</v>
@@ -7955,7 +7949,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O20" s="49" t="s">
         <v>97</v>
       </c>
@@ -7999,7 +7993,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" ht="187.2" x14ac:dyDescent="0.3">
       <c r="J21" s="2" t="s">
         <v>96</v>
       </c>
@@ -8018,7 +8012,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:54" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O22" s="49" t="s">
         <v>98</v>
       </c>
@@ -8036,7 +8030,7 @@
       <c r="X22" s="80"/>
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
-      <c r="AA22" s="90"/>
+      <c r="AA22" s="87"/>
       <c r="AB22" s="58"/>
       <c r="AC22" s="61"/>
       <c r="AD22" t="s">
@@ -8049,7 +8043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O23" s="47" t="s">
         <v>100</v>
       </c>
@@ -8063,7 +8057,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:54" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" ht="72" x14ac:dyDescent="0.3">
       <c r="O24" s="48" t="s">
         <v>101</v>
       </c>
@@ -8074,7 +8068,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O25" s="48" t="s">
         <v>99</v>
       </c>
@@ -8092,14 +8086,14 @@
       <c r="X25" s="80"/>
       <c r="Y25" s="80"/>
       <c r="Z25" s="80"/>
-      <c r="AA25" s="90"/>
+      <c r="AA25" s="87"/>
       <c r="AB25" s="58"/>
       <c r="AC25" s="61"/>
       <c r="AD25" s="41">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O26" s="47"/>
       <c r="T26">
         <f>48/62</f>
@@ -8112,7 +8106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O27" s="47"/>
       <c r="S27" t="s">
         <v>76</v>
@@ -8129,854 +8123,868 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O30" s="47"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O31" s="47"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="O32" s="47"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O33" s="47"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O34" s="47"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35" s="47"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O36" s="47"/>
     </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O37" s="47"/>
     </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O38" s="47"/>
     </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O39" s="47"/>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O40" s="47"/>
     </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O41" s="47"/>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O42" s="47"/>
     </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O43" s="47"/>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O44" s="47"/>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O45" s="47"/>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O46" s="47"/>
     </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O47" s="47"/>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O48" s="47"/>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="47"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="47"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="47"/>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O52" s="47"/>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O53" s="47"/>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O54" s="47"/>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O55" s="47"/>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O56" s="47"/>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O57" s="47"/>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O58" s="47"/>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O59" s="47"/>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O60" s="47"/>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O61" s="47"/>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O62" s="47"/>
     </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O63" s="47"/>
     </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O64" s="47"/>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O65" s="47"/>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O66" s="47"/>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O67" s="47"/>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O68" s="47"/>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O69" s="47"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O70" s="47"/>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O71" s="47"/>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O72" s="47"/>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O73" s="47"/>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O74" s="47"/>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O75" s="47"/>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O76" s="47"/>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O77" s="47"/>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O78" s="47"/>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O79" s="47"/>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O80" s="47"/>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O81" s="47"/>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O82" s="47"/>
     </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O83" s="47"/>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O84" s="47"/>
     </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O85" s="47"/>
     </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O86" s="47"/>
     </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O87" s="47"/>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O88" s="47"/>
     </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O89" s="47"/>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O90" s="47"/>
     </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O91" s="47"/>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O92" s="47"/>
     </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O93" s="47"/>
     </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O94" s="47"/>
     </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O95" s="47"/>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O96" s="47"/>
     </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O97" s="47"/>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O98" s="47"/>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O99" s="47"/>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O100" s="47"/>
     </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O101" s="47"/>
     </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O102" s="47"/>
     </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O103" s="47"/>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O104" s="47"/>
     </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O105" s="47"/>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O106" s="47"/>
     </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O107" s="47"/>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O108" s="47"/>
     </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O109" s="47"/>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O110" s="47"/>
     </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O111" s="47"/>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O112" s="47"/>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O113" s="47"/>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O114" s="47"/>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O115" s="47"/>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O116" s="47"/>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O117" s="47"/>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O118" s="47"/>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O119" s="47"/>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O120" s="47"/>
     </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O121" s="47"/>
     </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O122" s="47"/>
     </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O123" s="47"/>
     </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O124" s="47"/>
     </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O125" s="47"/>
     </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O126" s="47"/>
     </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O127" s="47"/>
     </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O128" s="47"/>
     </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O129" s="47"/>
     </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O130" s="47"/>
     </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O131" s="47"/>
     </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O132" s="47"/>
     </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O133" s="47"/>
     </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O134" s="47"/>
     </row>
-    <row r="135" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O135" s="47"/>
     </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O136" s="47"/>
     </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O137" s="47"/>
     </row>
-    <row r="138" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O138" s="47"/>
     </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O139" s="47"/>
     </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O140" s="47"/>
     </row>
-    <row r="141" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O141" s="47"/>
     </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O142" s="47"/>
     </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O143" s="47"/>
     </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O144" s="47"/>
     </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O145" s="47"/>
     </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O146" s="47"/>
     </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O147" s="47"/>
     </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O148" s="47"/>
     </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O149" s="47"/>
     </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O150" s="47"/>
     </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O151" s="47"/>
     </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O152" s="47"/>
     </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O153" s="47"/>
     </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O154" s="47"/>
     </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O155" s="47"/>
     </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O156" s="47"/>
     </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O157" s="47"/>
     </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O158" s="47"/>
     </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O159" s="47"/>
     </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O160" s="47"/>
     </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O161" s="47"/>
     </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O162" s="47"/>
     </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O163" s="47"/>
     </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O164" s="47"/>
     </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O165" s="47"/>
     </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O166" s="47"/>
     </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O167" s="47"/>
     </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O168" s="47"/>
     </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O169" s="47"/>
     </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O170" s="47"/>
     </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O171" s="47"/>
     </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O172" s="47"/>
     </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O173" s="47"/>
     </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O174" s="47"/>
     </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O175" s="47"/>
     </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O176" s="47"/>
     </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O177" s="47"/>
     </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O178" s="47"/>
     </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O179" s="47"/>
     </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O180" s="47"/>
     </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O181" s="47"/>
     </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O182" s="47"/>
     </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O183" s="47"/>
     </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O184" s="47"/>
     </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O185" s="47"/>
     </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O186" s="47"/>
     </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O187" s="47"/>
     </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O188" s="47"/>
     </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O189" s="47"/>
     </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O190" s="47"/>
     </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O191" s="47"/>
     </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O192" s="47"/>
     </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O193" s="47"/>
     </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O194" s="47"/>
     </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O195" s="47"/>
     </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O196" s="47"/>
     </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O197" s="47"/>
     </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O198" s="47"/>
     </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O199" s="47"/>
     </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O200" s="47"/>
     </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O201" s="47"/>
     </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O202" s="47"/>
     </row>
-    <row r="203" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O203" s="47"/>
     </row>
-    <row r="204" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O204" s="47"/>
     </row>
-    <row r="205" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O205" s="47"/>
     </row>
-    <row r="206" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O206" s="47"/>
     </row>
-    <row r="207" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O207" s="47"/>
     </row>
-    <row r="208" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O208" s="47"/>
     </row>
-    <row r="209" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O209" s="47"/>
     </row>
-    <row r="210" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O210" s="47"/>
     </row>
-    <row r="211" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O211" s="47"/>
     </row>
-    <row r="212" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O212" s="47"/>
     </row>
-    <row r="213" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O213" s="47"/>
     </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O214" s="47"/>
     </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O215" s="47"/>
     </row>
-    <row r="216" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O216" s="47"/>
     </row>
-    <row r="217" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O217" s="47"/>
     </row>
-    <row r="218" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O218" s="47"/>
     </row>
-    <row r="219" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O219" s="47"/>
     </row>
-    <row r="220" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O220" s="47"/>
     </row>
-    <row r="221" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O221" s="47"/>
     </row>
-    <row r="222" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O222" s="47"/>
     </row>
-    <row r="223" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O223" s="47"/>
     </row>
-    <row r="224" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O224" s="47"/>
     </row>
-    <row r="225" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O225" s="47"/>
     </row>
-    <row r="226" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O226" s="47"/>
     </row>
-    <row r="227" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O227" s="47"/>
     </row>
-    <row r="228" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O228" s="47"/>
     </row>
-    <row r="229" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O229" s="47"/>
     </row>
-    <row r="230" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O230" s="47"/>
     </row>
-    <row r="231" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O231" s="47"/>
     </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O232" s="47"/>
     </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O233" s="47"/>
     </row>
-    <row r="234" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O234" s="47"/>
     </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O235" s="47"/>
     </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O236" s="47"/>
     </row>
-    <row r="237" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O237" s="47"/>
     </row>
-    <row r="238" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O238" s="47"/>
     </row>
-    <row r="239" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O239" s="47"/>
     </row>
-    <row r="240" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O240" s="47"/>
     </row>
-    <row r="241" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O241" s="47"/>
     </row>
-    <row r="242" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O242" s="47"/>
     </row>
-    <row r="243" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O243" s="47"/>
     </row>
-    <row r="244" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O244" s="47"/>
     </row>
-    <row r="245" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O245" s="47"/>
     </row>
-    <row r="246" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O246" s="47"/>
     </row>
-    <row r="247" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O247" s="47"/>
     </row>
-    <row r="248" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O248" s="47"/>
     </row>
-    <row r="249" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O249" s="47"/>
     </row>
-    <row r="250" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O250" s="47"/>
     </row>
-    <row r="251" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O251" s="47"/>
     </row>
-    <row r="252" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O252" s="47"/>
     </row>
-    <row r="253" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O253" s="47"/>
     </row>
-    <row r="254" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O254" s="47"/>
     </row>
-    <row r="255" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O255" s="47"/>
     </row>
-    <row r="256" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O256" s="47"/>
     </row>
-    <row r="257" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O257" s="47"/>
     </row>
-    <row r="258" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O258" s="47"/>
     </row>
-    <row r="259" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O259" s="47"/>
     </row>
-    <row r="260" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O260" s="47"/>
     </row>
-    <row r="261" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O261" s="47"/>
     </row>
-    <row r="262" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O262" s="47"/>
     </row>
-    <row r="263" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O263" s="47"/>
     </row>
-    <row r="264" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O264" s="47"/>
     </row>
-    <row r="265" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O265" s="47"/>
     </row>
-    <row r="266" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O266" s="47"/>
     </row>
-    <row r="267" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O267" s="47"/>
     </row>
-    <row r="268" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O268" s="47"/>
     </row>
-    <row r="269" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O269" s="47"/>
     </row>
-    <row r="270" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O270" s="47"/>
     </row>
-    <row r="271" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O271" s="47"/>
     </row>
-    <row r="272" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O272" s="47"/>
     </row>
-    <row r="273" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O273" s="47"/>
     </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O274" s="47"/>
     </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O275" s="47"/>
     </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O276" s="47"/>
     </row>
-    <row r="277" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O277" s="47"/>
     </row>
-    <row r="278" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O278" s="47"/>
     </row>
-    <row r="279" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O279" s="47"/>
     </row>
-    <row r="280" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O280" s="47"/>
     </row>
-    <row r="281" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O281" s="47"/>
     </row>
-    <row r="282" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O282" s="47"/>
     </row>
-    <row r="283" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O283" s="47"/>
     </row>
-    <row r="284" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O284" s="47"/>
     </row>
-    <row r="285" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O285" s="47"/>
     </row>
-    <row r="286" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O286" s="47"/>
     </row>
-    <row r="287" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O287" s="47"/>
     </row>
-    <row r="288" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O288" s="47"/>
     </row>
-    <row r="289" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O289" s="47"/>
     </row>
-    <row r="290" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O290" s="47"/>
     </row>
-    <row r="291" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O291" s="47"/>
     </row>
-    <row r="292" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O292" s="47"/>
     </row>
-    <row r="293" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O293" s="47"/>
     </row>
-    <row r="294" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O294" s="47"/>
     </row>
-    <row r="295" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O295" s="47"/>
     </row>
-    <row r="296" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O296" s="47"/>
     </row>
-    <row r="297" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O297" s="47"/>
     </row>
-    <row r="298" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O298" s="47"/>
     </row>
-    <row r="299" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O299" s="47"/>
     </row>
-    <row r="300" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O300" s="47"/>
     </row>
-    <row r="301" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O301" s="47"/>
     </row>
-    <row r="302" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O302" s="47"/>
     </row>
-    <row r="303" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O303" s="47"/>
     </row>
-    <row r="304" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O304" s="47"/>
     </row>
-    <row r="305" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O305" s="47"/>
     </row>
-    <row r="306" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O306" s="47"/>
     </row>
-    <row r="307" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O307" s="47"/>
     </row>
-    <row r="308" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O308" s="47"/>
     </row>
-    <row r="309" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O309" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="AT1:AX2"/>
+    <mergeCell ref="AP1:AS2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="U22:AA22"/>
     <mergeCell ref="U25:AA25"/>
     <mergeCell ref="AD1:AE1"/>
@@ -8986,20 +8994,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="AT1:AX2"/>
-    <mergeCell ref="AP1:AS2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9012,20 +9006,20 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" s="82" t="s">
         <v>90</v>
       </c>
@@ -9037,7 +9031,7 @@
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -9063,7 +9057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -9130,7 +9124,7 @@
         <v>0.43870967741935485</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -9171,7 +9165,7 @@
         <v>0.19607843137254902</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -9191,7 +9185,7 @@
         <v>0.31818181818181818</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9217,7 +9211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -9258,7 +9252,7 @@
         <v>0.79354838709677422</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -9299,7 +9293,7 @@
         <v>0.67320261437908502</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>107</v>
       </c>
@@ -9334,9 +9328,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1" s="82" t="s">
         <v>49</v>
       </c>
@@ -9350,7 +9344,7 @@
       <c r="K1" s="82"/>
       <c r="L1" s="82"/>
     </row>
-    <row r="2" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
@@ -9367,7 +9361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
@@ -9394,7 +9388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="2">
         <v>8</v>
       </c>
@@ -9421,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>0.15384619999999999</v>
       </c>
@@ -9438,7 +9432,7 @@
         <v>7.9847908999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
@@ -9455,7 +9449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -9475,7 +9469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>46.8</v>
       </c>
@@ -9487,7 +9481,7 @@
         <v>236.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
@@ -9504,7 +9498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -9524,7 +9518,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -9558,24 +9552,24 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="50" t="s">
         <v>284</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>280</v>
       </c>
@@ -9619,7 +9613,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -9651,7 +9645,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>293</v>
       </c>
@@ -9680,7 +9674,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>294</v>
       </c>
@@ -9709,7 +9703,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>295</v>
       </c>
@@ -9738,7 +9732,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>296</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>297</v>
       </c>
@@ -9796,7 +9790,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>298</v>
       </c>
@@ -9825,7 +9819,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -9857,7 +9851,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>293</v>
       </c>
@@ -9886,7 +9880,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>294</v>
       </c>
@@ -9915,7 +9909,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>295</v>
       </c>
@@ -9944,7 +9938,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>296</v>
       </c>
@@ -9973,7 +9967,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>297</v>
       </c>
@@ -10002,7 +9996,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>298</v>
       </c>
@@ -10031,7 +10025,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>301</v>
       </c>
@@ -10048,7 +10042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>300</v>
       </c>
@@ -10084,16 +10078,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
@@ -10107,7 +10101,7 @@
       </c>
       <c r="H1" s="82"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>20</v>
       </c>
@@ -10121,7 +10115,7 @@
       </c>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10132,7 +10126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -10152,7 +10146,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10172,7 +10166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10192,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10212,7 +10206,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -10223,7 +10217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10242,7 +10236,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10261,7 +10255,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -10277,7 +10271,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -10296,7 +10290,7 @@
         <v>0.92788000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -10312,12 +10306,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15">
         <v>0.85372999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -10331,7 +10325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -10356,7 +10350,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -10407,12 +10401,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10442,37 +10436,37 @@
         <v>10.865784705434635</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -10483,7 +10477,7 @@
         <v>93.452726319999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -10494,7 +10488,7 @@
         <v>124.0565258</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -10505,7 +10499,7 @@
         <v>168.4236823</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -10516,7 +10510,7 @@
         <v>162.35640330000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -10527,7 +10521,7 @@
         <v>134.47331389999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -10538,7 +10532,7 @@
         <v>178.0938462</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -10549,7 +10543,7 @@
         <v>126.7746039</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -10574,7 +10568,7 @@
         <v>11.506879237782341</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -10599,7 +10593,7 @@
         <v>13.45866418973306</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -10624,7 +10618,7 @@
         <v>9.3038769582477752</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -10649,7 +10643,7 @@
         <v>10.113811137577002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -10688,19 +10682,19 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10722,7 +10716,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
         <v>206</v>
       </c>
@@ -10755,7 +10749,7 @@
         <v>7.1387853613077409E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -10782,7 +10776,7 @@
         <v>3.5401610369469601E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -10838,7 +10832,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10901,7 +10895,7 @@
         <v>2.0524515393386546E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10964,7 +10958,7 @@
         <v>2.9853658536585368E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -11027,7 +11021,7 @@
         <v>2.4657534246575345E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -11090,7 +11084,7 @@
         <v>2.2419928825622777E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -11153,7 +11147,7 @@
         <v>2.5555555555555554E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -11216,7 +11210,7 @@
         <v>3.0405405405405407E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11279,7 +11273,7 @@
         <v>2.8981264637002343E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -11342,7 +11336,7 @@
         <v>3.9154754505904291E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -11405,7 +11399,7 @@
         <v>3.6638214051214708E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11468,7 +11462,7 @@
         <v>3.0716723549488054E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11537,7 +11531,7 @@
         <v>4.4286495352651722E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -11606,7 +11600,7 @@
         <v>4.6100116414435392E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -11675,7 +11669,7 @@
         <v>5.2685950413223138E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -11744,7 +11738,7 @@
         <v>6.3642428285523689E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -11805,10 +11799,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P21" s="2" t="s">
         <v>336</v>
       </c>
@@ -11825,7 +11819,7 @@
         <v>1.7799371922654597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P22" t="s">
         <v>339</v>
       </c>
@@ -11842,7 +11836,7 @@
         <v>1.2869245386758277E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>340</v>
       </c>
@@ -11859,11 +11853,11 @@
         <v>2.519456172649908E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
     </row>
   </sheetData>
@@ -11889,19 +11883,19 @@
       <selection activeCell="C21" sqref="C21:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -11924,7 +11918,7 @@
         <v>12.483677127174243</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -11951,7 +11945,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11985,7 +11979,7 @@
         <v>17486.067675159236</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12015,7 +12009,7 @@
         <v>306107731.54284447</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12049,7 +12043,7 @@
         <v>47.48075142294465</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -12083,7 +12077,7 @@
         <v>48.135193544447056</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -12117,7 +12111,7 @@
         <v>48.86576972498829</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -12151,7 +12145,7 @@
         <v>50.042409117827788</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -12185,7 +12179,7 @@
         <v>50.629726806432259</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -12219,7 +12213,7 @@
         <v>51.956076745379875</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -12253,7 +12247,7 @@
         <v>49.535735925783001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -12287,7 +12281,7 @@
         <v>50.714735470017715</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -12321,7 +12315,7 @@
         <v>51.677485271258327</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -12355,7 +12349,7 @@
         <v>49.944658830748899</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -12389,7 +12383,7 @@
         <v>49.666174199116249</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -12423,7 +12417,7 @@
         <v>48.754310441032047</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -12457,7 +12451,7 @@
         <v>47.857912011511907</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -12491,7 +12485,7 @@
         <v>46.062936888531908</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -12525,7 +12519,7 @@
         <v>48.692275739671508</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -12559,7 +12553,7 @@
         <v>49.159759195924039</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -12593,7 +12587,7 @@
         <v>47.486402091947006</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -12631,7 +12625,7 @@
       <c r="AM23" s="31"/>
       <c r="AS23" s="31"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -12667,7 +12661,7 @@
       <c r="K24" s="32"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -12703,83 +12697,83 @@
       <c r="K25" s="32"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K26" s="32"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K27" s="32"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K28" s="32"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K29" s="32"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K30" s="32"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K31" s="32"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K32" s="32"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K33" s="32"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K34" s="32"/>
       <c r="T34" s="32"/>
     </row>
-    <row r="35" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K35" s="32"/>
       <c r="T35" s="32"/>
     </row>
-    <row r="36" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K36" s="32"/>
       <c r="T36" s="32"/>
     </row>
-    <row r="37" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K37" s="32"/>
       <c r="T37" s="32"/>
     </row>
-    <row r="38" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K38" s="32"/>
       <c r="T38" s="32"/>
     </row>
-    <row r="39" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K39" s="32"/>
       <c r="T39" s="32"/>
     </row>
-    <row r="40" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K40" s="32"/>
       <c r="T40" s="32"/>
     </row>
-    <row r="41" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K41" s="32"/>
       <c r="T41" s="32"/>
     </row>
-    <row r="42" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K42" s="32"/>
       <c r="T42" s="32"/>
     </row>
-    <row r="43" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K43" s="32"/>
       <c r="T43" s="32"/>
     </row>
-    <row r="44" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K44" s="32"/>
       <c r="T44" s="32"/>
     </row>
-    <row r="45" spans="11:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K45" s="32"/>
       <c r="T45" s="32"/>
     </row>
@@ -12800,17 +12794,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -12829,7 +12823,7 @@
         <v>3.0121015581908339</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>102</v>
       </c>
@@ -12858,7 +12852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -12889,7 +12883,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -12916,7 +12910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -12944,7 +12938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -12975,7 +12969,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -13006,7 +13000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -13037,7 +13031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -13068,7 +13062,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -13099,7 +13093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -13130,7 +13124,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -13161,7 +13155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -13192,7 +13186,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -13229,7 +13223,7 @@
         <v>6.1704176692362932E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -13266,7 +13260,7 @@
         <v>0.20194544705970136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -13303,7 +13297,7 @@
         <v>1.5303853037749711E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -13355,18 +13349,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -13389,7 +13383,7 @@
         <v>2.469886290043883E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -13421,7 +13415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13456,7 +13450,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13497,7 +13491,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13538,7 +13532,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -13579,7 +13573,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -13635,17 +13629,17 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
@@ -13667,7 +13661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -13707,7 +13701,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13726,7 +13720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13761,7 +13755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13806,7 +13800,7 @@
         <v>4.9156403300145979E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -13851,7 +13845,7 @@
         <v>7.741517537164154E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2018</v>
       </c>
@@ -13890,7 +13884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2019</v>
       </c>
@@ -13929,73 +13923,73 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M10" s="80"/>
       <c r="N10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M11" s="80"/>
       <c r="N11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M12" s="80"/>
       <c r="N12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M13" s="80"/>
       <c r="N13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M14" s="80"/>
       <c r="N14" t="e">
         <f>A14/H14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M15" s="80"/>
       <c r="N15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M16" s="2"/>
       <c r="N16" t="e">
         <f>A16/H16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17" s="2"/>
       <c r="N17" t="e">
         <f>A17/H17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
       <c r="N18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="13:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M20" s="2" t="s">
         <v>336</v>
       </c>
@@ -14021,19 +14015,19 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14059,7 +14053,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -14085,7 +14079,7 @@
         <v>11.514761</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -14111,7 +14105,7 @@
         <v>13.431084999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -14137,7 +14131,7 @@
         <v>9.3102490000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -14163,7 +14157,7 @@
         <v>10.120737999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -14189,7 +14183,7 @@
         <v>9.9525039999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -14200,17 +14194,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -14242,7 +14236,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -14277,7 +14271,7 @@
         <v>40259.251432999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -14312,7 +14306,7 @@
         <v>26170.57948</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -14347,7 +14341,7 @@
         <v>36050.491556000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -14389,39 +14383,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC5DEDB-985B-45F0-8844-65B8DF638F0F}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N3" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L4" s="2"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T5" t="s">
+        <v>241</v>
+      </c>
+      <c r="U5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="M6" s="5"/>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>371</v>
       </c>
@@ -14446,8 +14521,34 @@
       <c r="I7" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
+      </c>
+      <c r="Q7">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -14479,8 +14580,32 @@
         <f>H8^2</f>
         <v>0.33639999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>0.75</v>
+      </c>
+      <c r="P8">
+        <v>0.75</v>
+      </c>
+      <c r="Q8">
+        <v>0.75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>0.75</v>
+      </c>
+      <c r="T8">
+        <v>0.75</v>
+      </c>
+      <c r="U8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -14512,8 +14637,32 @@
         <f t="shared" ref="I9:I12" si="1">H9^2</f>
         <v>0.27040000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>37.9</v>
+      </c>
+      <c r="P9">
+        <v>37.9</v>
+      </c>
+      <c r="Q9">
+        <v>37.9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <v>42.4</v>
+      </c>
+      <c r="T9">
+        <v>42.4</v>
+      </c>
+      <c r="U9">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -14546,7 +14695,7 @@
         <v>0.43560000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -14578,8 +14727,14 @@
         <f t="shared" si="1"/>
         <v>0.40960000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -14611,8 +14766,104 @@
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <f>LN((O7-O6)/(O9-O6))</f>
+        <v>-0.68929361124395538</v>
+      </c>
+      <c r="P12">
+        <f>LN((P7-P6)/(P9-P6))</f>
+        <v>-0.95165787571144633</v>
+      </c>
+      <c r="Q12">
+        <f>LN((Q7-Q6)/(Q9-Q6))</f>
+        <v>-0.48165424646571087</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <f>LN((S7-S6)/(S9-S6))</f>
+        <v>-0.52407085051601121</v>
+      </c>
+      <c r="T12">
+        <f>LN((T7-T6)/(T9-T6))</f>
+        <v>-0.5812292643559599</v>
+      </c>
+      <c r="U12">
+        <f>LN((U7-U6)/(U9-U6))</f>
+        <v>-1.3245226750020567E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M13" s="42"/>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <f>_xlfn.NORM.INV(O8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+      <c r="P13">
+        <f>_xlfn.NORM.INV(P8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+      <c r="Q13">
+        <f>_xlfn.NORM.INV(Q8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13">
+        <f>_xlfn.NORM.INV(S8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+      <c r="T13">
+        <f>_xlfn.NORM.INV(T8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+      <c r="U13">
+        <f>_xlfn.NORM.INV(U8,0,1)^2</f>
+        <v>0.454936423119573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M14" s="42"/>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14">
+        <f>O13-(4*O12)</f>
+        <v>3.2121108680953947</v>
+      </c>
+      <c r="P14">
+        <f>P13-(4*P12)</f>
+        <v>4.2615679259653581</v>
+      </c>
+      <c r="Q14">
+        <f>Q13-(4*Q12)</f>
+        <v>2.3815534089824166</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14">
+        <f>S13-(4*S12)</f>
+        <v>2.551219825183618</v>
+      </c>
+      <c r="T14">
+        <f>T13-(4*T12)</f>
+        <v>2.7798534805434127</v>
+      </c>
+      <c r="U14">
+        <f>U13-(4*U12)</f>
+        <v>0.50791733011965523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>378</v>
       </c>
@@ -14625,8 +14876,38 @@
       <c r="E15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15">
+        <f>SQRT(O14)</f>
+        <v>1.7922362757447452</v>
+      </c>
+      <c r="P15">
+        <f>SQRT(P14)</f>
+        <v>2.0643565404177058</v>
+      </c>
+      <c r="Q15">
+        <f>SQRT(Q14)</f>
+        <v>1.543228242672618</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <f>SQRT(S14)</f>
+        <v>1.5972538386817601</v>
+      </c>
+      <c r="T15">
+        <f>SQRT(T14)</f>
+        <v>1.6672892612091679</v>
+      </c>
+      <c r="U15">
+        <f>SQRT(U14)</f>
+        <v>0.71268319056903207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -14646,8 +14927,38 @@
         <f t="shared" ref="E16:E20" si="2">D16^2</f>
         <v>0.37967014846235414</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16">
+        <f>_xlfn.NORM.INV(O8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="P16">
+        <f>_xlfn.NORM.INV(P8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="Q16">
+        <f>_xlfn.NORM.INV(Q8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="R16" t="s">
+        <v>243</v>
+      </c>
+      <c r="S16">
+        <f>_xlfn.NORM.INV(S8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="T16">
+        <f>_xlfn.NORM.INV(T8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="U16">
+        <f>_xlfn.NORM.INV(U8,0,1)*-1</f>
+        <v>-0.67448975019608193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -14667,8 +14978,10 @@
         <f t="shared" si="2"/>
         <v>0.35792550561797765</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -14681,15 +14994,23 @@
         <v>27.108338597599495</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D17:D20" si="3">SQRT(SUM(E10*B10,I10*F10)/SUM(F10,B10))</f>
+        <f t="shared" ref="D18:D20" si="3">SQRT(SUM(E10*B10,I10*F10)/SUM(F10,B10))</f>
         <v>0.7065235237249734</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>0.49917548957675306</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -14709,8 +15030,38 @@
         <f t="shared" si="2"/>
         <v>0.63384255725190841</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1">
+        <f>(O16+O15)/2</f>
+        <v>0.55887326277433158</v>
+      </c>
+      <c r="P19" s="1">
+        <f>(P16+P15)/2</f>
+        <v>0.69493339511081187</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>(Q16+Q15)/2</f>
+        <v>0.43436924623826806</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="1">
+        <f>(S16+S15)/2</f>
+        <v>0.46138204424283907</v>
+      </c>
+      <c r="T19" s="1">
+        <f>(T16+T15)/2</f>
+        <v>0.49639975550654297</v>
+      </c>
+      <c r="U19" s="1">
+        <f>(U16+U15)/2</f>
+        <v>1.9096720186475069E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -14730,13 +15081,47 @@
         <f t="shared" si="2"/>
         <v>0.70845999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L20" s="2"/>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="1">
+        <f>LN(O7-O6)+(O19^2)</f>
+        <v>2.877288681305564</v>
+      </c>
+      <c r="P20" s="1">
+        <f>LN(P7-P6)+(P19^2)</f>
+        <v>2.7855175166342856</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>LN(Q7-Q6)+(Q19^2)</f>
+        <v>2.9612653643173825</v>
+      </c>
+      <c r="R20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="1">
+        <f>LN(S7-S6)+(S19^2)</f>
+        <v>3.1032451486458656</v>
+      </c>
+      <c r="T20" s="1">
+        <f>LN(T7-T6)+(T19^2)</f>
+        <v>3.0796260613231716</v>
+      </c>
+      <c r="U20" s="1">
+        <f>LN(U7-U6)+(U19^2)</f>
+        <v>3.4015620663840358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -14745,7 +15130,7 @@
         <v>8141000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -14754,7 +15139,7 @@
         <v>26.248028497727553</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>382</v>
       </c>
@@ -14763,23 +15148,110 @@
         <v>0.7074912642267257</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>383</v>
       </c>
-      <c r="B28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f>LN(B26)</f>
+        <v>3.2675908813686481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>390</v>
       </c>
-      <c r="B29" t="s">
-        <v>392</v>
-      </c>
+      <c r="B29">
+        <f>LN(B27)^2</f>
+        <v>0.11973675877101153</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+    </row>
+    <row r="34" spans="12:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L36" s="68"/>
+      <c r="M36" s="67"/>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L37" s="10"/>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L38" s="10"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L40" s="10"/>
+      <c r="M40" s="67"/>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L41" s="10"/>
+      <c r="M41" s="67"/>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L42" s="10"/>
+      <c r="M42" s="67"/>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L43" s="10"/>
+      <c r="M43" s="67"/>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L44" s="10"/>
+      <c r="M44" s="67"/>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L45" s="10"/>
+      <c r="M45" s="67"/>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L46" s="10"/>
+      <c r="M46" s="67"/>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L47" s="10"/>
+      <c r="M47" s="67"/>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L48" s="10"/>
+      <c r="M48" s="67"/>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L49" s="10"/>
+      <c r="M49" s="69"/>
+    </row>
+    <row r="50" spans="12:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="70"/>
+      <c r="M50" s="71"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="R3:U4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>